--- a/Documentatie/Feedback Sheet.xlsx
+++ b/Documentatie/Feedback Sheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23F08A4-4014-4943-9B1A-B58316EBF093}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B990ABC8-A67D-4733-81AC-FD39FC0E8518}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ontvangen Feedback" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Onderwerp</t>
   </si>
@@ -116,6 +116,18 @@
   </si>
   <si>
     <t>----</t>
+  </si>
+  <si>
+    <t>Logo feedback</t>
+  </si>
+  <si>
+    <t>Lex Voorhans</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Het logo ziet er tot nu toe goed uit, probeer ook wat met kleur te werken. Misschien slim om ook met andere fonts te proberen. Pas wel op dat je er niet te veel tijd in steekt want het is maar een klein onderdeel.</t>
   </si>
 </sst>
 </file>
@@ -125,7 +137,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-413]mmmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-413]d\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -187,25 +199,17 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-413]mmmm\-yy;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-413]d\ mmmm\ yyyy;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-413]mmmm\-yy;@"/>
@@ -222,6 +226,14 @@
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-413]mmmm\-yy;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-413]d\ mmmm\ yyyy;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-413]mmmm\-yy;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-413]mmmm\-yy;@"/>
@@ -243,12 +255,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{96D5B4DA-4A08-4C3F-BD56-F2F6E5BD2A7B}" name="OntvangenFeedbackTabel" displayName="OntvangenFeedbackTabel" ref="A1:F31" totalsRowShown="0" dataDxfId="7">
   <autoFilter ref="A1:F31" xr:uid="{B81B230B-92FD-4249-8A29-908B4D618420}"/>
   <tableColumns count="6">
-    <tableColumn id="11" xr3:uid="{AB3C2428-8EC3-4D31-8F30-755DF4411A21}" name="Naam" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{4E9C4E25-B6CA-41B0-8A94-50E5002070B4}" name="Datum van Ontvangst" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{C387273E-A03E-4A95-8B5F-0BF449C084E7}" name="Van" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{92FBDD89-05B2-47BD-953A-5EC7F3E0FC00}" name="Aan" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{67FBC42A-9215-4849-890B-6C71974CBDCD}" name="Onderwerp" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{78492E53-1AA0-4881-8A75-3044C8D50DC0}" name="Beschrijving" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{AB3C2428-8EC3-4D31-8F30-755DF4411A21}" name="Naam" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{4E9C4E25-B6CA-41B0-8A94-50E5002070B4}" name="Datum van Ontvangst" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{C387273E-A03E-4A95-8B5F-0BF449C084E7}" name="Van" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{92FBDD89-05B2-47BD-953A-5EC7F3E0FC00}" name="Aan" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{67FBC42A-9215-4849-890B-6C71974CBDCD}" name="Onderwerp" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{78492E53-1AA0-4881-8A75-3044C8D50DC0}" name="Beschrijving" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -533,21 +545,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="185.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="6" max="6" width="185.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -567,7 +579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -587,7 +599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -607,7 +619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -627,15 +639,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="5">
+        <v>43227</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
@@ -643,7 +667,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
@@ -651,7 +675,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
@@ -659,7 +683,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
@@ -667,7 +691,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
@@ -675,7 +699,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -683,7 +707,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
@@ -691,7 +715,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -699,7 +723,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
@@ -707,7 +731,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -715,7 +739,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
@@ -723,7 +747,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -731,7 +755,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
@@ -739,7 +763,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
@@ -747,7 +771,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -755,7 +779,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
@@ -763,7 +787,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
@@ -771,7 +795,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
@@ -779,7 +803,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
@@ -787,7 +811,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
@@ -795,7 +819,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
@@ -803,7 +827,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
@@ -811,7 +835,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
@@ -819,7 +843,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
@@ -827,7 +851,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
@@ -835,7 +859,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
@@ -860,16 +884,16 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="75.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="75.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -886,7 +910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>43206</v>
       </c>
@@ -903,7 +927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>43206</v>
       </c>
@@ -920,7 +944,7 @@
         <v>43213</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>43213</v>
       </c>
@@ -937,103 +961,103 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="12"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
     </row>
   </sheetData>

--- a/Documentatie/Feedback Sheet.xlsx
+++ b/Documentatie/Feedback Sheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B990ABC8-A67D-4733-81AC-FD39FC0E8518}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C513EB-A65D-4796-915B-248C52708AC8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ontvangen Feedback" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Onderwerp</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Het logo ziet er tot nu toe goed uit, probeer ook wat met kleur te werken. Misschien slim om ook met andere fonts te proberen. Pas wel op dat je er niet te veel tijd in steekt want het is maar een klein onderdeel.</t>
+  </si>
+  <si>
+    <t>Thema onderzoek besproken</t>
   </si>
 </sst>
 </file>
@@ -205,7 +208,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -545,21 +548,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
-    <col min="6" max="6" width="185.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="185.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -579,7 +582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -599,7 +602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -619,7 +622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -639,7 +642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -659,7 +662,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
@@ -667,7 +670,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
@@ -675,7 +678,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
@@ -683,7 +686,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
@@ -691,7 +694,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
@@ -699,7 +702,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -707,7 +710,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
@@ -715,7 +718,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -723,7 +726,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
@@ -731,7 +734,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -739,7 +742,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
@@ -747,7 +750,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -755,7 +758,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
@@ -763,7 +766,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
@@ -771,7 +774,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -779,7 +782,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
@@ -787,7 +790,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
@@ -795,7 +798,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
@@ -803,7 +806,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
@@ -811,7 +814,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
@@ -819,7 +822,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
@@ -827,7 +830,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
@@ -835,7 +838,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
@@ -843,7 +846,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
@@ -851,7 +854,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
@@ -859,7 +862,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
@@ -880,20 +883,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1ED5DB6-57AF-4F6E-A1E3-6C52533493D6}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="75.109375" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="75.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -910,7 +913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>43206</v>
       </c>
@@ -927,7 +930,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>43206</v>
       </c>
@@ -944,7 +947,7 @@
         <v>43213</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>43213</v>
       </c>
@@ -961,103 +964,117 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>43227</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="12">
+        <v>43227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
     </row>
   </sheetData>
